--- a/积极心理学词频.xlsx
+++ b/积极心理学词频.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\positive-psychology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31159196-8DDB-40F8-A9B4-2CB68B55628A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49D78A5-3258-40BD-B7B5-37B6C1FFB663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{38D8662F-D314-534B-BE33-7D5EEDC5A92A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="9" xr2:uid="{38D8662F-D314-534B-BE33-7D5EEDC5A92A}"/>
   </bookViews>
   <sheets>
     <sheet name="英文词频" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,22 @@
     <sheet name="大学机构" sheetId="7" r:id="rId4"/>
     <sheet name="国内学者" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
-    <sheet name="国外机构-弃用" sheetId="9" r:id="rId7"/>
-    <sheet name="发表时间变化" sheetId="5" r:id="rId8"/>
-    <sheet name="国外主要学者" sheetId="8" r:id="rId9"/>
-    <sheet name="国外前20机构" sheetId="11" r:id="rId10"/>
-    <sheet name="期刊" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId7"/>
+    <sheet name="国外机构-弃用" sheetId="9" r:id="rId8"/>
+    <sheet name="发表时间变化" sheetId="5" r:id="rId9"/>
+    <sheet name="国外主要学者" sheetId="8" r:id="rId10"/>
+    <sheet name="国外前20机构" sheetId="11" r:id="rId11"/>
+    <sheet name="期刊" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">大学机构!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">发表时间变化!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">发表时间变化!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">国内学者!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'国外机构-弃用'!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">国外前20机构!$A$1:$D$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">国外主要学者!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'国外机构-弃用'!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">国外前20机构!$A$1:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">国外主要学者!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">机构!$A$1:$A$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">期刊!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">期刊!$A$1:$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">英文词频!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">主题!$A$1:$B$1</definedName>
   </definedNames>
@@ -771,12 +772,6 @@
     <t xml:space="preserve">UNIVERSITY OF BRITISH COLUMBIA </t>
   </si>
   <si>
-    <t xml:space="preserve">UNIVERSITY COLLEGE LONDON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANFORD UNIVERSITY </t>
-  </si>
-  <si>
     <t>总发文量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1255,6 +1250,14 @@
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STANFORD UNIVERSITY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIVERSITY COLLEGE LONDON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2090,12 +2093,287 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB130D-8DBC-2040-BFCC-4D73273AED21}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="14">
+        <v>160</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="16">
+        <v>206075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="14">
+        <v>52</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="14">
+        <v>85171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="14">
+        <v>111</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" s="14">
+        <v>75862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{75C8815F-1821-42B1-AF57-D45FC563472B}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{1CA64014-200E-DF47-9F55-9935AF16CFA4}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{5FEB2444-7B3F-7A49-8E86-68B45EA51E44}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{66DC25CD-7E85-2A4E-A82C-9B3A0A79F62D}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{772D87F5-1215-5A4C-9067-09E4F8263B69}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{39A423E7-5D1F-B849-9DD5-1CE906E27EF1}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{FE7329AC-6D4E-7444-896E-335B54B1E39E}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{78E426C3-0429-E648-B38C-607DCF7BF829}"/>
+    <hyperlink ref="G2" r:id="rId8" display="https://scholar.google.com.hk/citations?view_op=view_org&amp;hl=zh-CN&amp;org=18168328457749716238" xr:uid="{3726E06C-0815-4DD4-B430-3171E4A4047F}"/>
+    <hyperlink ref="G3" r:id="rId9" display="https://scholar.google.com.hk/citations?view_op=view_org&amp;hl=zh-CN&amp;org=12209259376725822458" xr:uid="{14043CA7-0588-4CFC-8C05-0EF59F364631}"/>
+    <hyperlink ref="G4" r:id="rId10" display="https://scholar.google.com.hk/citations?view_op=view_org&amp;hl=zh-CN&amp;org=4770128543809686866" xr:uid="{C0857C1A-642D-4EF7-8450-4FF070C3BC72}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7FC4D2-9893-467A-8829-6A2059E6D508}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2114,10 +2392,10 @@
         <v>108</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2128,10 +2406,10 @@
         <v>356</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2142,10 +2420,10 @@
         <v>235</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2156,10 +2434,10 @@
         <v>225</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2170,10 +2448,10 @@
         <v>187</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2184,10 +2462,10 @@
         <v>173</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2198,10 +2476,10 @@
         <v>173</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2212,10 +2490,10 @@
         <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2226,10 +2504,10 @@
         <v>162</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2240,10 +2518,10 @@
         <v>142</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2254,10 +2532,10 @@
         <v>135</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2268,10 +2546,10 @@
         <v>122</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2282,24 +2560,24 @@
         <v>108</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B14" s="5">
         <v>105</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2310,10 +2588,10 @@
         <v>105</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2324,24 +2602,24 @@
         <v>103</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B17" s="5">
         <v>101</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2352,38 +2630,38 @@
         <v>100</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="B19" s="5">
         <v>99</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="B20" s="5">
         <v>97</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92C82F1-4232-9043-B527-7FA6AEFDD498}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -2492,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -3294,7 +3572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1756775A-8611-8D45-8CE3-A2842D396128}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:F12"/>
     </sheetView>
@@ -3320,13 +3598,13 @@
         <v>139</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3591,13 +3869,13 @@
         <v>139</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3838,6 +4116,58 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB20DCC-DD9E-4D3C-9BA0-5F0A699CAE44}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="e">
+        <f>vl</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAF5DB9-17F0-6B4B-A578-0106721FFF3B}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -3981,7 +4311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C61809-E860-CA4D-8AF4-FE3D141727B8}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -4152,279 +4482,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AB130D-8DBC-2040-BFCC-4D73273AED21}">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="14">
-        <v>160</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="H2" s="16">
-        <v>206075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="14">
-        <v>52</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" s="14">
-        <v>85171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="14">
-        <v>111</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="14">
-        <v>75862</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{75C8815F-1821-42B1-AF57-D45FC563472B}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" xr:uid="{1CA64014-200E-DF47-9F55-9935AF16CFA4}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{5FEB2444-7B3F-7A49-8E86-68B45EA51E44}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{66DC25CD-7E85-2A4E-A82C-9B3A0A79F62D}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{772D87F5-1215-5A4C-9067-09E4F8263B69}"/>
-    <hyperlink ref="E2" r:id="rId5" xr:uid="{39A423E7-5D1F-B849-9DD5-1CE906E27EF1}"/>
-    <hyperlink ref="E3" r:id="rId6" xr:uid="{FE7329AC-6D4E-7444-896E-335B54B1E39E}"/>
-    <hyperlink ref="E5" r:id="rId7" xr:uid="{78E426C3-0429-E648-B38C-607DCF7BF829}"/>
-    <hyperlink ref="G2" r:id="rId8" display="https://scholar.google.com.hk/citations?view_op=view_org&amp;hl=zh-CN&amp;org=18168328457749716238" xr:uid="{3726E06C-0815-4DD4-B430-3171E4A4047F}"/>
-    <hyperlink ref="G3" r:id="rId9" display="https://scholar.google.com.hk/citations?view_op=view_org&amp;hl=zh-CN&amp;org=12209259376725822458" xr:uid="{14043CA7-0588-4CFC-8C05-0EF59F364631}"/>
-    <hyperlink ref="G4" r:id="rId10" display="https://scholar.google.com.hk/citations?view_op=view_org&amp;hl=zh-CN&amp;org=4770128543809686866" xr:uid="{C0857C1A-642D-4EF7-8450-4FF070C3BC72}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>